--- a/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>39050</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28825</v>
+        <v>27942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50791</v>
+        <v>51226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2039234613907661</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1505277532798719</v>
+        <v>0.1459164516747892</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2652379755877013</v>
+        <v>0.2675076234734686</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -765,19 +765,19 @@
         <v>31090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21839</v>
+        <v>22220</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43653</v>
+        <v>42069</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.154504551211943</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1085298008378666</v>
+        <v>0.1104233793027751</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2169386901023497</v>
+        <v>0.2090681045563848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -786,19 +786,19 @@
         <v>70140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57500</v>
+        <v>56492</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87270</v>
+        <v>86626</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1786018586168106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1464154038869354</v>
+        <v>0.143850464090623</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2222213051566671</v>
+        <v>0.2205829848432466</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>152443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140702</v>
+        <v>140267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>162668</v>
+        <v>163551</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7960765386092339</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7347620244122987</v>
+        <v>0.7324923765265313</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8494722467201279</v>
+        <v>0.8540835483252106</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -836,19 +836,19 @@
         <v>170132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>157569</v>
+        <v>159153</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>179383</v>
+        <v>179002</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.845495448788057</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7830613098976503</v>
+        <v>0.7909318954436152</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8914701991621333</v>
+        <v>0.889576620697225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>309</v>
@@ -857,19 +857,19 @@
         <v>322576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>305446</v>
+        <v>306090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>335216</v>
+        <v>336224</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8213981413831895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.777778694843333</v>
+        <v>0.7794170151567533</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8535845961130648</v>
+        <v>0.8561495359093768</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>97102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79138</v>
+        <v>80921</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115524</v>
+        <v>115526</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2369746856904152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1931348332216919</v>
+        <v>0.1974850215583437</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2819342540708288</v>
+        <v>0.2819384140226846</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>87</v>
@@ -982,19 +982,19 @@
         <v>86007</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69763</v>
+        <v>71517</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102753</v>
+        <v>104040</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1949375185491554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1581203829550847</v>
+        <v>0.1620962586814501</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2328935872921047</v>
+        <v>0.235810307324805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>178</v>
@@ -1003,19 +1003,19 @@
         <v>183108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162354</v>
+        <v>159331</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>209534</v>
+        <v>208970</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2151794094358215</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.190789327784398</v>
+        <v>0.1872376601470974</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2462336316484693</v>
+        <v>0.2455707085926091</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>312654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294232</v>
+        <v>294230</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>330618</v>
+        <v>328835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7630253143095848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7180657459291713</v>
+        <v>0.7180615859773161</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8068651667783083</v>
+        <v>0.8025149784416563</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>351</v>
@@ -1053,19 +1053,19 @@
         <v>355194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>338448</v>
+        <v>337161</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371438</v>
+        <v>369684</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8050624814508446</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7671064127078953</v>
+        <v>0.7641896926751951</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8418796170449153</v>
+        <v>0.8379037413185499</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>644</v>
@@ -1074,19 +1074,19 @@
         <v>667849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>641423</v>
+        <v>641987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>688603</v>
+        <v>691626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7848205905641785</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7537663683515304</v>
+        <v>0.7544292914073903</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8092106722156018</v>
+        <v>0.8127623398529016</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>50321</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38419</v>
+        <v>38607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63531</v>
+        <v>64126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2127403723440855</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1624246006612587</v>
+        <v>0.1632162766790047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2685891585159649</v>
+        <v>0.2711043277649886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1199,19 +1199,19 @@
         <v>35943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26666</v>
+        <v>26358</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48697</v>
+        <v>49245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1244525668989546</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.092331703738582</v>
+        <v>0.09126392591769433</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1686160259321193</v>
+        <v>0.1705109581506759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -1220,19 +1220,19 @@
         <v>86264</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70184</v>
+        <v>70559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104298</v>
+        <v>104508</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1642043647655124</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.133596824123976</v>
+        <v>0.1343104430147742</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1985334598123985</v>
+        <v>0.1989320677934149</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>186216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>173006</v>
+        <v>172411</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>198118</v>
+        <v>197930</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7872596276559145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7314108414840342</v>
+        <v>0.7288956722350114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8375753993387413</v>
+        <v>0.8367837233209946</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>252</v>
@@ -1270,19 +1270,19 @@
         <v>252863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240109</v>
+        <v>239561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>262140</v>
+        <v>262448</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8755474331010454</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8313839740678807</v>
+        <v>0.8294890418493241</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.907668296261418</v>
+        <v>0.9087360740823058</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>434</v>
@@ -1291,19 +1291,19 @@
         <v>439079</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>421045</v>
+        <v>420835</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>455159</v>
+        <v>454784</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8357956352344876</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8014665401876013</v>
+        <v>0.8010679322065848</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.866403175876024</v>
+        <v>0.8656895569852258</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>42433</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31335</v>
+        <v>31898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53870</v>
+        <v>54800</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1586092987893018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1171257026444937</v>
+        <v>0.1192327350572162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2013612011278547</v>
+        <v>0.204835085931624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -1416,19 +1416,19 @@
         <v>34502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24624</v>
+        <v>24324</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45577</v>
+        <v>46646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1151840738398169</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08220934589970601</v>
+        <v>0.08120501851361617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1521584872006355</v>
+        <v>0.1557269885713918</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -1437,19 +1437,19 @@
         <v>76934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61627</v>
+        <v>63121</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93038</v>
+        <v>94712</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.135671308033487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1086763741253789</v>
+        <v>0.111311765654581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1640687855261677</v>
+        <v>0.1670222060534699</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>225098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>213661</v>
+        <v>212731</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236196</v>
+        <v>235633</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8413907012106981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7986387988721452</v>
+        <v>0.7951649140683757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8828742973555062</v>
+        <v>0.8807672649427837</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>273</v>
@@ -1487,19 +1487,19 @@
         <v>265032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>253957</v>
+        <v>252888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>274910</v>
+        <v>275210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8848159261601831</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8478415127993647</v>
+        <v>0.844273011428608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9177906541002941</v>
+        <v>0.9187949814863836</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>497</v>
@@ -1508,19 +1508,19 @@
         <v>490131</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>474027</v>
+        <v>472353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>505438</v>
+        <v>503944</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.864328691966513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8359312144738326</v>
+        <v>0.8329777939465303</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8913236258746211</v>
+        <v>0.8886882343454193</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>36440</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26618</v>
+        <v>27096</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47143</v>
+        <v>47638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2140049172903581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1563234575612502</v>
+        <v>0.1591308932484129</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2768569870434964</v>
+        <v>0.2797642445863789</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>26276</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17465</v>
+        <v>17952</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38196</v>
+        <v>37698</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1510941865564253</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1004257741420097</v>
+        <v>0.1032296088257849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.219637753760522</v>
+        <v>0.2167721456177575</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -1654,19 +1654,19 @@
         <v>62717</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>48761</v>
+        <v>49295</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78680</v>
+        <v>77220</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1822179997860389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1416710014372495</v>
+        <v>0.1432220157334357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2285999470244406</v>
+        <v>0.2243562328682166</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>133838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123135</v>
+        <v>122640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>143660</v>
+        <v>143182</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7859950827096419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7231430129565035</v>
+        <v>0.7202357554136214</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8436765424387498</v>
+        <v>0.8408691067515872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>143</v>
@@ -1704,19 +1704,19 @@
         <v>147630</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135710</v>
+        <v>136208</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156441</v>
+        <v>155954</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8489058134435746</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7803622462394781</v>
+        <v>0.7832278543822425</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8995742258579903</v>
+        <v>0.8967703911742153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>277</v>
@@ -1725,19 +1725,19 @@
         <v>281467</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>265504</v>
+        <v>266964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>295423</v>
+        <v>294889</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8177820002139611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7714000529755595</v>
+        <v>0.7756437671317834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8583289985627506</v>
+        <v>0.8567779842665645</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>29691</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20896</v>
+        <v>20047</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41363</v>
+        <v>40141</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1568710126555106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1104013672119226</v>
+        <v>0.1059191298251551</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2185393712486783</v>
+        <v>0.2120816865030245</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1850,19 +1850,19 @@
         <v>20997</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13784</v>
+        <v>12538</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30571</v>
+        <v>30479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1026829863421253</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06740740715687002</v>
+        <v>0.06131524964949633</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1495022758622943</v>
+        <v>0.149051011317025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>49</v>
@@ -1871,19 +1871,19 @@
         <v>50688</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37445</v>
+        <v>38251</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65768</v>
+        <v>64887</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1287298690874597</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09509608242590099</v>
+        <v>0.09714415084776266</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1670268748716807</v>
+        <v>0.1647885288256858</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>159579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>147907</v>
+        <v>149129</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168374</v>
+        <v>169223</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8431289873444894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7814606287513219</v>
+        <v>0.7879183134969755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8895986327880775</v>
+        <v>0.8940808701748449</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>178</v>
@@ -1921,19 +1921,19 @@
         <v>183491</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>173917</v>
+        <v>174009</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>190704</v>
+        <v>191950</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8973170136578746</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8504977241377052</v>
+        <v>0.850948988682975</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9325925928431298</v>
+        <v>0.9386847503505036</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>336</v>
@@ -1942,19 +1942,19 @@
         <v>343070</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>327990</v>
+        <v>328871</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>356313</v>
+        <v>355507</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8712701309125402</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8329731251283193</v>
+        <v>0.8352114711743142</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9049039175740992</v>
+        <v>0.9028558491522374</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>90812</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74107</v>
+        <v>73910</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108439</v>
+        <v>107860</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1955786790510016</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1596011499378955</v>
+        <v>0.1591769656139968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2335419480348843</v>
+        <v>0.232295237035912</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -2067,19 +2067,19 @@
         <v>82359</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66768</v>
+        <v>66283</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>100684</v>
+        <v>99782</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1526955498619937</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1237901250246937</v>
+        <v>0.1228893995472535</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1866711195451267</v>
+        <v>0.1849978548316747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -2088,19 +2088,19 @@
         <v>173171</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>149619</v>
+        <v>151393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>197068</v>
+        <v>198520</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1725339950793343</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1490684846010999</v>
+        <v>0.1508356513574401</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.196342935329632</v>
+        <v>0.1977898395304725</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>373513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>355886</v>
+        <v>356465</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>390218</v>
+        <v>390415</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8044213209489983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7664580519651156</v>
+        <v>0.7677047629640884</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8403988500621045</v>
+        <v>0.8408230343860031</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>444</v>
@@ -2138,19 +2138,19 @@
         <v>457009</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>438684</v>
+        <v>439586</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>472600</v>
+        <v>473085</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8473044501380064</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8133288804548734</v>
+        <v>0.8150021451683254</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8762098749753063</v>
+        <v>0.8771106004527467</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>808</v>
@@ -2159,19 +2159,19 @@
         <v>830521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>806624</v>
+        <v>805172</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>854073</v>
+        <v>852299</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8274660049206657</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8036570646703681</v>
+        <v>0.8022101604695274</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8509315153989007</v>
+        <v>0.8491643486425599</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>103844</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85600</v>
+        <v>84726</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>123778</v>
+        <v>120311</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1975897098102982</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1628770559893533</v>
+        <v>0.1612126055327564</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2355193942307892</v>
+        <v>0.2289224618433504</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>80</v>
@@ -2284,19 +2284,19 @@
         <v>85389</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68902</v>
+        <v>69450</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>104273</v>
+        <v>104011</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1441378550861767</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1163072089219042</v>
+        <v>0.1172323534390268</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1760140026870724</v>
+        <v>0.1755720766845397</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>185</v>
@@ -2305,19 +2305,19 @@
         <v>189232</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>164581</v>
+        <v>164511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>215107</v>
+        <v>215755</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1692654273176953</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1472147969386155</v>
+        <v>0.1471525660985905</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1924095420090336</v>
+        <v>0.1929896477820444</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>421708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>401774</v>
+        <v>405241</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>439952</v>
+        <v>440826</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8024102901897018</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7644806057692108</v>
+        <v>0.7710775381566496</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8371229440106468</v>
+        <v>0.8387873944672439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>485</v>
@@ -2355,19 +2355,19 @@
         <v>507023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>488139</v>
+        <v>488401</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>523510</v>
+        <v>522962</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8558621449138233</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8239859973129275</v>
+        <v>0.8244279233154601</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8836927910780956</v>
+        <v>0.8827676465609733</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>902</v>
@@ -2376,19 +2376,19 @@
         <v>928731</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>902856</v>
+        <v>902208</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>953382</v>
+        <v>953452</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8307345726823048</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8075904579909666</v>
+        <v>0.8070103522179557</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8527852030613846</v>
+        <v>0.8528474339014095</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>489693</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1994884374704375</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>395</v>
@@ -2501,19 +2501,19 @@
         <v>402562</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1468703088849137</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>879</v>
@@ -2522,19 +2522,19 @@
         <v>892255</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1717301817827289</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1965049</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1924726</v>
+        <v>1926163</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2000636</v>
+        <v>2009741</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8005115625295626</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7840850116258432</v>
+        <v>0.7846702236876698</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.815008733912025</v>
+        <v>0.8187179121338949</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2284</v>
@@ -2572,19 +2572,19 @@
         <v>2338375</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2303592</v>
+        <v>2298714</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2374461</v>
+        <v>2375937</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8531296911150863</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.840439523865224</v>
+        <v>0.8386597733294703</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8662952037071465</v>
+        <v>0.8668338966468488</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4207</v>
@@ -2593,19 +2593,19 @@
         <v>4303424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4249279</v>
+        <v>4250758</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4358769</v>
+        <v>4358425</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8282698182172711</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8178486444524178</v>
+        <v>0.818133390714457</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8389218579123776</v>
+        <v>0.8388556598534002</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>75119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59939</v>
+        <v>61832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89788</v>
+        <v>90107</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2998057637667444</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2392198123264539</v>
+        <v>0.2467762429836879</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3583485280633398</v>
+        <v>0.3596235093079728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -2962,19 +2962,19 @@
         <v>49876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37270</v>
+        <v>37579</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64879</v>
+        <v>63899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2001115220197074</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1495362880936679</v>
+        <v>0.1507757859748978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2603098897761768</v>
+        <v>0.2563752242881942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -2983,19 +2983,19 @@
         <v>124995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107040</v>
+        <v>106328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148224</v>
+        <v>145496</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2500904109390174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2141665461001494</v>
+        <v>0.2127411571592296</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.296567196169108</v>
+        <v>0.2911083110994408</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>175441</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>160772</v>
+        <v>160453</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>190621</v>
+        <v>188728</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7001942362332555</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6416514719366605</v>
+        <v>0.6403764906920272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7607801876735463</v>
+        <v>0.7532237570163121</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -3033,19 +3033,19 @@
         <v>199363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>184360</v>
+        <v>185340</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>211969</v>
+        <v>211660</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7998884779802926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7396901102238234</v>
+        <v>0.7436247757118059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8504637119063325</v>
+        <v>0.8492242140251024</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -3054,19 +3054,19 @@
         <v>374805</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>351576</v>
+        <v>354304</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>392760</v>
+        <v>393472</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7499095890609826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7034328038308921</v>
+        <v>0.7088916889005593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7858334538998507</v>
+        <v>0.7872588428407706</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>114159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96600</v>
+        <v>96010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134172</v>
+        <v>133838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2809522468712476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2377371191083338</v>
+        <v>0.2362848541192548</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3302057200903186</v>
+        <v>0.3293835932230146</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -3179,19 +3179,19 @@
         <v>77560</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62936</v>
+        <v>62635</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95326</v>
+        <v>95135</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1771495058458067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1437480174857725</v>
+        <v>0.1430607185176267</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2177261426407451</v>
+        <v>0.2172899011729926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -3200,19 +3200,19 @@
         <v>191719</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>166557</v>
+        <v>168467</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>217194</v>
+        <v>218305</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2271145578275579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1973061572726405</v>
+        <v>0.1995687084634827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.257292465729045</v>
+        <v>0.2586086117345373</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>292171</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>272158</v>
+        <v>272492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>309730</v>
+        <v>310320</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7190477531287524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6697942799096814</v>
+        <v>0.6706164067769853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7622628808916662</v>
+        <v>0.7637151458807453</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>328</v>
@@ -3250,19 +3250,19 @@
         <v>360263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342497</v>
+        <v>342688</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>374887</v>
+        <v>375188</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8228504941541933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7822738573592547</v>
+        <v>0.7827100988270073</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8562519825142274</v>
+        <v>0.8569392814823731</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>605</v>
@@ -3271,19 +3271,19 @@
         <v>652434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>626959</v>
+        <v>625848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>677596</v>
+        <v>675686</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7728854421724421</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.742707534270955</v>
+        <v>0.7413913882654627</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8026938427273594</v>
+        <v>0.8004312915365173</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>81594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65935</v>
+        <v>66959</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97312</v>
+        <v>99684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.277849014929119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2245243621880672</v>
+        <v>0.2280137361297111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3313705750272779</v>
+        <v>0.3394502137666147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3396,19 +3396,19 @@
         <v>65587</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52183</v>
+        <v>51840</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80917</v>
+        <v>80580</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1995040017314179</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1587303346600754</v>
+        <v>0.1576881755759393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2461337693564724</v>
+        <v>0.2451080037014098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>140</v>
@@ -3417,19 +3417,19 @@
         <v>147182</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126013</v>
+        <v>126408</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168779</v>
+        <v>171725</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.23646820143759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2024579404872373</v>
+        <v>0.2030929976771814</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2711678442364668</v>
+        <v>0.2759009204768194</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>212070</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>196352</v>
+        <v>193980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>227729</v>
+        <v>226705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7221509850708809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.668629424972722</v>
+        <v>0.6605497862333852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7754756378119327</v>
+        <v>0.7719862638702889</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>244</v>
@@ -3467,19 +3467,19 @@
         <v>263165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247835</v>
+        <v>248172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276569</v>
+        <v>276912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8004959982685821</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7538662306435275</v>
+        <v>0.7548919962985903</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8412696653399245</v>
+        <v>0.8423118244240607</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>454</v>
@@ -3488,19 +3488,19 @@
         <v>475234</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>453637</v>
+        <v>450691</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>496403</v>
+        <v>496008</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7635317985624099</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7288321557635331</v>
+        <v>0.7240990795231804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7975420595127627</v>
+        <v>0.7969070023228184</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>89008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71602</v>
+        <v>73932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105424</v>
+        <v>108143</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2843001782647008</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.228704632969935</v>
+        <v>0.2361461024635085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3367340389939243</v>
+        <v>0.3454191930263358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -3613,19 +3613,19 @@
         <v>63060</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48736</v>
+        <v>49497</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78716</v>
+        <v>78976</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1839470310869743</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1421655572666174</v>
+        <v>0.1443840157971977</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2296156378538474</v>
+        <v>0.2303756858778868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -3634,19 +3634,19 @@
         <v>152067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>130859</v>
+        <v>130857</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>176028</v>
+        <v>175914</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2318486334641464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1995130316435323</v>
+        <v>0.199510629851852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.268379614360874</v>
+        <v>0.2682067693536966</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>224069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207653</v>
+        <v>204934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>241475</v>
+        <v>239145</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7156998217352992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6632659610060757</v>
+        <v>0.6545808069736641</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7712953670300651</v>
+        <v>0.7638538975364915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -3684,19 +3684,19 @@
         <v>279755</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>264099</v>
+        <v>263839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294079</v>
+        <v>293318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8160529689130257</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7703843621461526</v>
+        <v>0.7696243141221132</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8578344427333826</v>
+        <v>0.8556159842028023</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>472</v>
@@ -3705,19 +3705,19 @@
         <v>503824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>479863</v>
+        <v>479977</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>525032</v>
+        <v>525034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7681513665358537</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7316203856391258</v>
+        <v>0.7317932306463034</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8004869683564677</v>
+        <v>0.800489370148148</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>55251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>42913</v>
+        <v>43126</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68533</v>
+        <v>70723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2876765502610283</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2234352359184195</v>
+        <v>0.2245468356686526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3568334500490092</v>
+        <v>0.3682355194283179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -3830,19 +3830,19 @@
         <v>43485</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32184</v>
+        <v>33452</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55715</v>
+        <v>55188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.222345877914949</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1645626305480252</v>
+        <v>0.1710446246334264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2848790138989423</v>
+        <v>0.2821827785800222</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -3851,19 +3851,19 @@
         <v>98736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79154</v>
+        <v>82696</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117079</v>
+        <v>118804</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2547150044578043</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2041984834837436</v>
+        <v>0.2133367615034708</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3020356056750694</v>
+        <v>0.3064872566640631</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>136807</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123525</v>
+        <v>121335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>149145</v>
+        <v>148932</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7123234497389718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6431665499509908</v>
+        <v>0.6317644805716821</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7765647640815805</v>
+        <v>0.7754531643313473</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>147</v>
@@ -3901,19 +3901,19 @@
         <v>152089</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139859</v>
+        <v>140386</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163390</v>
+        <v>162122</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.777654122085051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7151209861010573</v>
+        <v>0.7178172214199777</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8354373694519748</v>
+        <v>0.8289553753665736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>272</v>
@@ -3922,19 +3922,19 @@
         <v>288896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>270553</v>
+        <v>268828</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>308478</v>
+        <v>304936</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7452849955421957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6979643943249306</v>
+        <v>0.6935127433359367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7958015165162563</v>
+        <v>0.7866632384965292</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>81238</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66005</v>
+        <v>65424</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95791</v>
+        <v>95515</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3249869838087748</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2640479721852833</v>
+        <v>0.2617229601356685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3832063265501348</v>
+        <v>0.3821003564391999</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -4047,19 +4047,19 @@
         <v>61686</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48791</v>
+        <v>48298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76231</v>
+        <v>76379</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2329262006306133</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1842337946462799</v>
+        <v>0.182373399283562</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.287847188522983</v>
+        <v>0.2884066728000027</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>138</v>
@@ -4068,19 +4068,19 @@
         <v>142924</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123417</v>
+        <v>123669</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>165963</v>
+        <v>162452</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.277628204444189</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2397356171644436</v>
+        <v>0.24022536887864</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3223816023942728</v>
+        <v>0.3155614374571244</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>168735</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154182</v>
+        <v>154458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>183968</v>
+        <v>184549</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6750130161912251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6167936734498655</v>
+        <v>0.6178996435607997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7359520278147168</v>
+        <v>0.7382770398643314</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -4118,19 +4118,19 @@
         <v>203144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>188599</v>
+        <v>188451</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>216039</v>
+        <v>216532</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7670737993693868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7121528114770168</v>
+        <v>0.7115933271999975</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8157662053537201</v>
+        <v>0.8176266007164382</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>354</v>
@@ -4139,19 +4139,19 @@
         <v>371879</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>348840</v>
+        <v>352351</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>391386</v>
+        <v>391134</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.722371795555811</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6776183976057272</v>
+        <v>0.6844385625428755</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7602643828355564</v>
+        <v>0.75977463112136</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>117584</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96884</v>
+        <v>98293</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136554</v>
+        <v>139705</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2044610097756723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1684672811279343</v>
+        <v>0.1709178796653012</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2374480365418308</v>
+        <v>0.2429271819037079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -4264,19 +4264,19 @@
         <v>82703</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64472</v>
+        <v>67120</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101332</v>
+        <v>99944</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1323330307962453</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1031621134421851</v>
+        <v>0.1073990286215459</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1621418286283054</v>
+        <v>0.1599204193731604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>185</v>
@@ -4285,19 +4285,19 @@
         <v>200286</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>173698</v>
+        <v>176216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>226459</v>
+        <v>229522</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.166898386584178</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1447426000873267</v>
+        <v>0.14684084231272</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1887078146642024</v>
+        <v>0.1912607092505283</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>457507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>438537</v>
+        <v>435386</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>478207</v>
+        <v>476798</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7955389902243276</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7625519634581692</v>
+        <v>0.7570728180962921</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8315327188720657</v>
+        <v>0.8290821203346987</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>497</v>
@@ -4335,19 +4335,19 @@
         <v>542256</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>523627</v>
+        <v>525015</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>560487</v>
+        <v>557839</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8676669692037547</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8378581713716946</v>
+        <v>0.8400795806268395</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8968378865578149</v>
+        <v>0.8926009713784541</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>923</v>
@@ -4356,19 +4356,19 @@
         <v>999764</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>973591</v>
+        <v>970528</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1026352</v>
+        <v>1023834</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.833101613415822</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8112921853357977</v>
+        <v>0.8087392907494717</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8552573999126735</v>
+        <v>0.8531591576872796</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>106244</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87915</v>
+        <v>87541</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126860</v>
+        <v>127453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1676026828085409</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1386886334792921</v>
+        <v>0.1380975978517343</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2001251591431149</v>
+        <v>0.2010603229252729</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>98</v>
@@ -4481,19 +4481,19 @@
         <v>107909</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>89455</v>
+        <v>88266</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128716</v>
+        <v>127882</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1538847687481769</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1275680668628752</v>
+        <v>0.1258736695481046</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.183557104232146</v>
+        <v>0.1823688352536404</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>192</v>
@@ -4502,19 +4502,19 @@
         <v>214153</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>188266</v>
+        <v>185380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>242878</v>
+        <v>242933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1603978591681063</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1410089279442855</v>
+        <v>0.1388474341218764</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1819130257890653</v>
+        <v>0.1819538336651793</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>527661</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>507045</v>
+        <v>506452</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>545990</v>
+        <v>546364</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.832397317191459</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7998748408568853</v>
+        <v>0.7989396770747271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8613113665207079</v>
+        <v>0.8619024021482657</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>547</v>
@@ -4552,19 +4552,19 @@
         <v>593321</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>572514</v>
+        <v>573348</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>611775</v>
+        <v>612964</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8461152312518232</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.816442895767854</v>
+        <v>0.8176311647463597</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8724319331371247</v>
+        <v>0.8741263304518955</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1037</v>
@@ -4573,19 +4573,19 @@
         <v>1120982</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1092257</v>
+        <v>1092202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1146869</v>
+        <v>1149755</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8396021408318938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8180869742109348</v>
+        <v>0.8180461663348207</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8589910720557147</v>
+        <v>0.8611525658781237</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>720197</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>672605</v>
+        <v>674171</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>771564</v>
+        <v>769868</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2470949374470533</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2307662041267554</v>
+        <v>0.2313034871831457</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2647185595867428</v>
+        <v>0.2641367180323813</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>514</v>
@@ -4698,19 +4698,19 @@
         <v>551865</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>510450</v>
+        <v>510922</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>598233</v>
+        <v>597030</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1754614156441599</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1622938702937434</v>
+        <v>0.1624439416612224</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1902036937245718</v>
+        <v>0.1898212078857305</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1188</v>
@@ -4719,19 +4719,19 @@
         <v>1272062</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1209548</v>
+        <v>1205270</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1340557</v>
+        <v>1337420</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2099154437925402</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1995993593062257</v>
+        <v>0.1988933383356389</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2212184333310712</v>
+        <v>0.2207007545965525</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2194462</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2143095</v>
+        <v>2144791</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2242054</v>
+        <v>2240488</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7529050625529466</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.735281440413257</v>
+        <v>0.7358632819676187</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7692337958732443</v>
+        <v>0.7686965128168544</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2400</v>
@@ -4769,19 +4769,19 @@
         <v>2593356</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2546988</v>
+        <v>2548191</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2634771</v>
+        <v>2634299</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.82453858435584</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.809796306275428</v>
+        <v>0.8101787921142695</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8377061297062566</v>
+        <v>0.8375560583387771</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4462</v>
@@ -4790,19 +4790,19 @@
         <v>4787817</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4719322</v>
+        <v>4722459</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4850331</v>
+        <v>4854609</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7900845562074599</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7787815666689287</v>
+        <v>0.7792992454034475</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8004006406937744</v>
+        <v>0.8011066616643612</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>50097</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36917</v>
+        <v>37652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64435</v>
+        <v>65019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2042958423747676</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1505464819371362</v>
+        <v>0.1535462617774278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2627662817738333</v>
+        <v>0.2651481357980813</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -5159,19 +5159,19 @@
         <v>34509</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23189</v>
+        <v>25178</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45790</v>
+        <v>48248</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1407159969663743</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09455767418303342</v>
+        <v>0.1026675029431768</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1867138425126985</v>
+        <v>0.1967390450563302</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -5180,19 +5180,19 @@
         <v>84606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68896</v>
+        <v>66453</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104377</v>
+        <v>102743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1725045231584677</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1404734714309228</v>
+        <v>0.1354930059712534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2128147970267691</v>
+        <v>0.2094848761048932</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>195121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>180783</v>
+        <v>180199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208301</v>
+        <v>207566</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7957041576252324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7372337182261668</v>
+        <v>0.7348518642019184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8494535180628636</v>
+        <v>0.8464537382225721</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>206</v>
@@ -5230,19 +5230,19 @@
         <v>210730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199449</v>
+        <v>196991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>222050</v>
+        <v>220061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8592840030336257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8132861574873015</v>
+        <v>0.8032609549436696</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9054423258169666</v>
+        <v>0.8973324970568232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>383</v>
@@ -5251,19 +5251,19 @@
         <v>405851</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>386080</v>
+        <v>387714</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>421561</v>
+        <v>424004</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8274954768415324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7871852029732304</v>
+        <v>0.7905151238951067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.859526528569077</v>
+        <v>0.8645069940287462</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>66706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52914</v>
+        <v>52850</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83101</v>
+        <v>83030</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1836805360957256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1457018791740284</v>
+        <v>0.1455250076203802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2288249485632584</v>
+        <v>0.2286301445893825</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -5376,19 +5376,19 @@
         <v>50779</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38497</v>
+        <v>39112</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64990</v>
+        <v>66684</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1291014696853951</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09787577807192725</v>
+        <v>0.09943805128118026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1652320313318956</v>
+        <v>0.1695395124923587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>112</v>
@@ -5397,19 +5397,19 @@
         <v>117485</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99353</v>
+        <v>99227</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140792</v>
+        <v>141970</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1553029640023772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1313335143324013</v>
+        <v>0.1311671767249844</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1861116795007743</v>
+        <v>0.1876694981345875</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>296459</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>280064</v>
+        <v>280135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>310251</v>
+        <v>310315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8163194639042743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7711750514367416</v>
+        <v>0.7713698554106173</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8542981208259715</v>
+        <v>0.8544749923796197</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>325</v>
@@ -5447,19 +5447,19 @@
         <v>342548</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328337</v>
+        <v>326643</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354830</v>
+        <v>354215</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.870898530314605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8347679686681043</v>
+        <v>0.8304604875076412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9021242219280727</v>
+        <v>0.9005619487188197</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>602</v>
@@ -5468,19 +5468,19 @@
         <v>639007</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>615700</v>
+        <v>614522</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>657139</v>
+        <v>657265</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8446970359976228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8138883204992257</v>
+        <v>0.8123305018654126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8686664856675987</v>
+        <v>0.8688328232750162</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>32145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23815</v>
+        <v>22436</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43725</v>
+        <v>43229</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1106529740288951</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08197735493422451</v>
+        <v>0.0772288739113569</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1505135869039396</v>
+        <v>0.1488053444314607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -5593,19 +5593,19 @@
         <v>25724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17844</v>
+        <v>17255</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37564</v>
+        <v>37136</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08358256563347484</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05797862516638646</v>
+        <v>0.0560661759382405</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1220538387208447</v>
+        <v>0.120664443479906</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -5614,19 +5614,19 @@
         <v>57869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45815</v>
+        <v>44637</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73405</v>
+        <v>72674</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09672734052286902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07657893744952442</v>
+        <v>0.07461095807511796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1226950418923961</v>
+        <v>0.121474291913023</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>258362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>246782</v>
+        <v>247278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266692</v>
+        <v>268071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8893470259711049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8494864130960604</v>
+        <v>0.8511946555685385</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9180226450657755</v>
+        <v>0.9227711260886431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>279</v>
@@ -5664,19 +5664,19 @@
         <v>282040</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>270200</v>
+        <v>270628</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>289920</v>
+        <v>290509</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9164174343665251</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8779461612791553</v>
+        <v>0.879335556520094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9420213748336135</v>
+        <v>0.9439338240617594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>548</v>
@@ -5685,19 +5685,19 @@
         <v>540401</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>524865</v>
+        <v>525596</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>552455</v>
+        <v>553633</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.903272659477131</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8773049581076039</v>
+        <v>0.8785257080869772</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9234210625504757</v>
+        <v>0.925389041924882</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>76163</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60999</v>
+        <v>61094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94129</v>
+        <v>92754</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2307638334895327</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1848204385366188</v>
+        <v>0.1851064314531085</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2851996052366287</v>
+        <v>0.2810326111365331</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -5810,19 +5810,19 @@
         <v>46272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33486</v>
+        <v>34003</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61136</v>
+        <v>60196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1326364745525935</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.095986192658803</v>
+        <v>0.09746844893213445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1752459302533332</v>
+        <v>0.1725504982049452</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -5831,19 +5831,19 @@
         <v>122435</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102405</v>
+        <v>101811</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144901</v>
+        <v>142728</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1803405215861555</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1508377930707731</v>
+        <v>0.1499624481332059</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2134323082199517</v>
+        <v>0.210231469654601</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>253884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235918</v>
+        <v>237293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>269048</v>
+        <v>268953</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7692361665104672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7148003947633715</v>
+        <v>0.718967388863467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8151795614633812</v>
+        <v>0.814893568546892</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>280</v>
@@ -5881,19 +5881,19 @@
         <v>302589</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>287725</v>
+        <v>288665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315375</v>
+        <v>314858</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8673635254474065</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8247540697466668</v>
+        <v>0.8274495017950548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.904013807341197</v>
+        <v>0.9025315510678655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>523</v>
@@ -5902,19 +5902,19 @@
         <v>556473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>534007</v>
+        <v>536180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>576503</v>
+        <v>577097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8196594784138446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7865676917800483</v>
+        <v>0.7897685303453993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8491622069292269</v>
+        <v>0.8500375518667949</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>19876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12883</v>
+        <v>13278</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30032</v>
+        <v>29156</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1667113907625919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.108058555814243</v>
+        <v>0.1113725419501547</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2518995980594699</v>
+        <v>0.2445541027695504</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -6027,19 +6027,19 @@
         <v>23122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15266</v>
+        <v>14957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34248</v>
+        <v>32629</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1589109061208037</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1049208027205557</v>
+        <v>0.1027959166613899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.235383914812291</v>
+        <v>0.2242573000869804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -6048,19 +6048,19 @@
         <v>42997</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32769</v>
+        <v>31984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56689</v>
+        <v>56069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1624239899344987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.123785061818194</v>
+        <v>0.1208219953550237</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2141458152884316</v>
+        <v>0.2118038110195029</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>99346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89190</v>
+        <v>90066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106339</v>
+        <v>105944</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8332886092374081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7481004019405296</v>
+        <v>0.7554458972304497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8919414441857569</v>
+        <v>0.8886274580498458</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -6098,19 +6098,19 @@
         <v>122378</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>111252</v>
+        <v>112871</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130234</v>
+        <v>130543</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8410890938791963</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7646160851877094</v>
+        <v>0.7757426999130197</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8950791972794444</v>
+        <v>0.8972040833386102</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>228</v>
@@ -6119,19 +6119,19 @@
         <v>221725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>208033</v>
+        <v>208653</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231953</v>
+        <v>232738</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8375760100655013</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.785854184711568</v>
+        <v>0.7881961889804971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.876214938181806</v>
+        <v>0.8791780046449762</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>66031</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52780</v>
+        <v>52586</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80582</v>
+        <v>80351</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2826503735172607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2259266514996198</v>
+        <v>0.2250959426720535</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3449347478877903</v>
+        <v>0.3439464300823313</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -6244,19 +6244,19 @@
         <v>50047</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38414</v>
+        <v>37551</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64349</v>
+        <v>64314</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2025085229612038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1554377362792829</v>
+        <v>0.1519456759140784</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2603782584165191</v>
+        <v>0.2602348930066617</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -6265,19 +6265,19 @@
         <v>116079</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96677</v>
+        <v>97834</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136373</v>
+        <v>136088</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.241452389407747</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2010957729382952</v>
+        <v>0.2035021280976379</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2836653847602922</v>
+        <v>0.2830718536686517</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>167584</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153033</v>
+        <v>153264</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180835</v>
+        <v>181029</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7173496264827394</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6550652521122097</v>
+        <v>0.6560535699176687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7740733485003802</v>
+        <v>0.7749040573279465</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -6315,19 +6315,19 @@
         <v>197090</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>182788</v>
+        <v>182823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>208723</v>
+        <v>209586</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7974914770387962</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7396217415834809</v>
+        <v>0.7397651069933382</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.844562263720717</v>
+        <v>0.8480543240859214</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>359</v>
@@ -6336,19 +6336,19 @@
         <v>364674</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>344380</v>
+        <v>344665</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>384076</v>
+        <v>382919</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.758547610592253</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7163346152397075</v>
+        <v>0.7169281463313483</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7989042270617045</v>
+        <v>0.7964978719023621</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>59901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44852</v>
+        <v>46669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77464</v>
+        <v>76813</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1354284963740778</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1014049457753233</v>
+        <v>0.1055116629738804</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1751367822752646</v>
+        <v>0.1736648785533321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -6461,19 +6461,19 @@
         <v>50285</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36703</v>
+        <v>37221</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66913</v>
+        <v>65560</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1032443179348706</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07535820481042538</v>
+        <v>0.0764214153537954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1373842003138462</v>
+        <v>0.1346057728498882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>97</v>
@@ -6482,19 +6482,19 @@
         <v>110186</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90915</v>
+        <v>89286</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132880</v>
+        <v>131334</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1185616558599077</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09782583453088166</v>
+        <v>0.09607237222788559</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1429804275848369</v>
+        <v>0.1413168453314392</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>382406</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>364843</v>
+        <v>365494</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>397455</v>
+        <v>395638</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8645715036259222</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8248632177247349</v>
+        <v>0.826335121446668</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8985950542246766</v>
+        <v>0.8944883370261196</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>416</v>
@@ -6532,19 +6532,19 @@
         <v>436766</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>420138</v>
+        <v>421491</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>450348</v>
+        <v>449830</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8967556820651295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8626157996861539</v>
+        <v>0.8653942271501106</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9246417951895747</v>
+        <v>0.9235785846462041</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>750</v>
@@ -6553,19 +6553,19 @@
         <v>819172</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>796478</v>
+        <v>798024</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>838443</v>
+        <v>840072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8814383441400923</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8570195724151635</v>
+        <v>0.858683154668561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9021741654691192</v>
+        <v>0.9039276277721146</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>104808</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87507</v>
+        <v>86471</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125422</v>
+        <v>122132</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1636983278996489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.136676079693143</v>
+        <v>0.1350572614738759</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.195895231410346</v>
+        <v>0.190756256047657</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>84</v>
@@ -6678,19 +6678,19 @@
         <v>92606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>74774</v>
+        <v>75816</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113802</v>
+        <v>111968</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1339515480744021</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1081583924364615</v>
+        <v>0.1096652402412549</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1646108830319338</v>
+        <v>0.1619583494012503</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>187</v>
@@ -6699,19 +6699,19 @@
         <v>197414</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>172723</v>
+        <v>171433</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>222781</v>
+        <v>225859</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1482542856347121</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1297116016802885</v>
+        <v>0.1287427152123592</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1673044826316831</v>
+        <v>0.1696154429495078</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>535444</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>514830</v>
+        <v>518120</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>552745</v>
+        <v>553781</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8363016721003511</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.804104768589654</v>
+        <v>0.809243743952343</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8633239203068571</v>
+        <v>0.8649427385261241</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>551</v>
@@ -6749,19 +6749,19 @@
         <v>598735</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>577539</v>
+        <v>579373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>616567</v>
+        <v>615525</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8660484519255979</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8353891169680667</v>
+        <v>0.8380416505987497</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8918416075635387</v>
+        <v>0.890334759758745</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1064</v>
@@ -6770,19 +6770,19 @@
         <v>1134179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1108812</v>
+        <v>1105734</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1158870</v>
+        <v>1160160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8517457143652879</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8326955173683176</v>
+        <v>0.8303845570504917</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8702883983197116</v>
+        <v>0.8712572847876408</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>475728</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>442272</v>
+        <v>438722</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>519856</v>
+        <v>515981</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1785542612612699</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1659973409126756</v>
+        <v>0.1646649375421684</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1951168628032931</v>
+        <v>0.193662468053813</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>345</v>
@@ -6895,19 +6895,19 @@
         <v>373344</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>336518</v>
+        <v>339540</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>408958</v>
+        <v>407086</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1302565464725484</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1174082264879975</v>
+        <v>0.1184625522440296</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1426818387007105</v>
+        <v>0.1420289076456202</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>799</v>
@@ -6916,19 +6916,19 @@
         <v>849072</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>792978</v>
+        <v>793652</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>904196</v>
+        <v>907452</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1535238745563651</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1433812320449594</v>
+        <v>0.1435031771484751</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1634911105436664</v>
+        <v>0.1640798322708391</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2188605</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2144477</v>
+        <v>2148352</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2222061</v>
+        <v>2225611</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8214457387387301</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8048831371967069</v>
+        <v>0.806337531946187</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8340026590873244</v>
+        <v>0.8353350624578315</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2381</v>
@@ -6966,19 +6966,19 @@
         <v>2492877</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2457263</v>
+        <v>2459135</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2529703</v>
+        <v>2526681</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8697434535274516</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8573181612992895</v>
+        <v>0.8579710923543798</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8825917735120025</v>
+        <v>0.8815374477559706</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4457</v>
@@ -6987,19 +6987,19 @@
         <v>4681482</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4626358</v>
+        <v>4623102</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4737576</v>
+        <v>4736902</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8464761254436349</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8365088894563335</v>
+        <v>0.8359201677291607</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8566187679550405</v>
+        <v>0.8564968228515245</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>46232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35896</v>
+        <v>35383</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58604</v>
+        <v>58906</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1536377998716968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1192884478564554</v>
+        <v>0.1175846353158407</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1947506313343509</v>
+        <v>0.1957549489886071</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -7356,19 +7356,19 @@
         <v>32322</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24454</v>
+        <v>24630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40996</v>
+        <v>42267</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1044457710425061</v>
+        <v>0.104445771042506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07901946150715818</v>
+        <v>0.07958959101761078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1324751384116914</v>
+        <v>0.1365798235544281</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -7377,19 +7377,19 @@
         <v>78554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65268</v>
+        <v>64812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94164</v>
+        <v>94103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1286973819192251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1069297040500845</v>
+        <v>0.1061836221395249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1542713591092513</v>
+        <v>0.1541701843595933</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>254685</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242313</v>
+        <v>242011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>265021</v>
+        <v>265534</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8463622001283033</v>
+        <v>0.8463622001283032</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.805249368665649</v>
+        <v>0.8042450510113929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8807115521435441</v>
+        <v>0.8824153646841593</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>471</v>
@@ -7427,19 +7427,19 @@
         <v>277142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>268468</v>
+        <v>267197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285010</v>
+        <v>284834</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8955542289574938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8675248615883085</v>
+        <v>0.8634201764455719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9209805384928416</v>
+        <v>0.9204104089823891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>735</v>
@@ -7448,19 +7448,19 @@
         <v>531827</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>516217</v>
+        <v>516278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>545113</v>
+        <v>545569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8713026180807748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8457286408907487</v>
+        <v>0.8458298156404065</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8930702959499154</v>
+        <v>0.8938163778604752</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>39385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27153</v>
+        <v>27549</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57258</v>
+        <v>56801</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07602834816443164</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05241527649957451</v>
+        <v>0.05318017513752196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1105298565417682</v>
+        <v>0.1096487703621101</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -7573,19 +7573,19 @@
         <v>42079</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32003</v>
+        <v>32536</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52887</v>
+        <v>54068</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07915267420344033</v>
+        <v>0.0791526742034403</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06019994007826678</v>
+        <v>0.0612027833462922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09948368128924164</v>
+        <v>0.1017057545478125</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -7594,19 +7594,19 @@
         <v>81463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64419</v>
+        <v>65488</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100773</v>
+        <v>103621</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07761072719502619</v>
+        <v>0.07761072719502621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06137227020998931</v>
+        <v>0.0623910962065574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09600718028591267</v>
+        <v>0.0987202197735096</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>478643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>460770</v>
+        <v>461227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>490875</v>
+        <v>490479</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9239716518355683</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8894701434582318</v>
+        <v>0.8903512296378906</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9475847235004253</v>
+        <v>0.9468198248624785</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>635</v>
@@ -7644,19 +7644,19 @@
         <v>489533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478725</v>
+        <v>477544</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499609</v>
+        <v>499076</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9208473257965598</v>
+        <v>0.9208473257965595</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9005163187107589</v>
+        <v>0.8982942454521878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9398000599217334</v>
+        <v>0.9387972166537079</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>974</v>
@@ -7665,19 +7665,19 @@
         <v>968177</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>948867</v>
+        <v>946019</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>985221</v>
+        <v>984152</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9223892728049737</v>
+        <v>0.922389272804974</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9039928197140882</v>
+        <v>0.9012797802264901</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9386277297900107</v>
+        <v>0.9376089037934425</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>58455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47294</v>
+        <v>47663</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71702</v>
+        <v>71886</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1946996236457841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.157526277247295</v>
+        <v>0.1587556633150708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2388216517965191</v>
+        <v>0.2394342790233783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -7790,19 +7790,19 @@
         <v>54857</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45752</v>
+        <v>45751</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66414</v>
+        <v>66722</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.160539004191377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1338934838882598</v>
+        <v>0.1338913282967759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1943601775132501</v>
+        <v>0.1952627338508297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -7811,19 +7811,19 @@
         <v>113312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98467</v>
+        <v>98365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131587</v>
+        <v>130973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1765157916858191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1533902120907362</v>
+        <v>0.1532312741866899</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2049848650248724</v>
+        <v>0.2040282651112541</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>241776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228529</v>
+        <v>228345</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>252937</v>
+        <v>252568</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8053003763542159</v>
+        <v>0.8053003763542158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.761178348203481</v>
+        <v>0.7605657209766218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8424737227527053</v>
+        <v>0.841244336684929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -7861,19 +7861,19 @@
         <v>286848</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>275291</v>
+        <v>274983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>295953</v>
+        <v>295954</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8394609958086233</v>
+        <v>0.8394609958086231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8056398224867499</v>
+        <v>0.8047372661491703</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8661065161117405</v>
+        <v>0.8661086717032241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>691</v>
@@ -7882,19 +7882,19 @@
         <v>528623</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>510348</v>
+        <v>510962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>543468</v>
+        <v>543570</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8234842083141808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7950151349751274</v>
+        <v>0.7959717348887458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8466097879092631</v>
+        <v>0.8467687258133101</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>63492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47478</v>
+        <v>46174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84510</v>
+        <v>83639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1712592466729809</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.128064229961938</v>
+        <v>0.1245469539180655</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2279507766623839</v>
+        <v>0.2256017509640921</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -8007,19 +8007,19 @@
         <v>43408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32868</v>
+        <v>34061</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54272</v>
+        <v>55318</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1034475040319134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07832832971262479</v>
+        <v>0.08117256705861645</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1293387105453581</v>
+        <v>0.1318307332659749</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -8028,19 +8028,19 @@
         <v>106900</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86734</v>
+        <v>85821</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133286</v>
+        <v>129391</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1352566499709157</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1097409862847877</v>
+        <v>0.1085854343460681</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1686411281459788</v>
+        <v>0.1637128314879161</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>307246</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286228</v>
+        <v>287099</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>323260</v>
+        <v>324564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8287407533270192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7720492233376162</v>
+        <v>0.7743982490359078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8719357700380622</v>
+        <v>0.8754530460819344</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>524</v>
@@ -8078,19 +8078,19 @@
         <v>376205</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>365341</v>
+        <v>364295</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386745</v>
+        <v>385552</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8965524959680865</v>
+        <v>0.8965524959680864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8706612894546421</v>
+        <v>0.8681692667340251</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.921671670287376</v>
+        <v>0.9188274329413832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>761</v>
@@ -8099,19 +8099,19 @@
         <v>683451</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>657065</v>
+        <v>660960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>703617</v>
+        <v>704530</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8647433500290842</v>
+        <v>0.8647433500290843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.831358871854021</v>
+        <v>0.8362871685120838</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8902590137152123</v>
+        <v>0.8914145656539318</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>42500</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33672</v>
+        <v>33631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52447</v>
+        <v>52519</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2245132845231771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1778788217788567</v>
+        <v>0.1776606052284982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2770607194573921</v>
+        <v>0.2774412101642825</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -8224,19 +8224,19 @@
         <v>29975</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23196</v>
+        <v>23793</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37154</v>
+        <v>37462</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1363730441041132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1055335600592995</v>
+        <v>0.1082486599210627</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1690318173956896</v>
+        <v>0.1704332422840382</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -8245,19 +8245,19 @@
         <v>72475</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61701</v>
+        <v>62169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86358</v>
+        <v>85412</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1771573230716101</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1508221672643205</v>
+        <v>0.1519650334570627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2110928064456526</v>
+        <v>0.2087806989039067</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>146799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>136852</v>
+        <v>136780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>155627</v>
+        <v>155668</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7754867154768228</v>
+        <v>0.775486715476823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7229392805426077</v>
+        <v>0.7225587898357174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8221211782211429</v>
+        <v>0.8223393947715019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>408</v>
@@ -8295,19 +8295,19 @@
         <v>189827</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182648</v>
+        <v>182340</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196606</v>
+        <v>196009</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8636269558958867</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8309681826043104</v>
+        <v>0.8295667577159616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8944664399407003</v>
+        <v>0.8917513400789371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>606</v>
@@ -8316,19 +8316,19 @@
         <v>336626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>322743</v>
+        <v>323689</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347400</v>
+        <v>346932</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.82284267692839</v>
+        <v>0.8228426769283897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7889071935543475</v>
+        <v>0.7912193010960934</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8491778327356798</v>
+        <v>0.8480349665429371</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>50439</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40847</v>
+        <v>40998</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61623</v>
+        <v>60720</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2019692836871824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1635613895218048</v>
+        <v>0.1641661399292809</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2467548149992021</v>
+        <v>0.2431357764622825</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -8441,19 +8441,19 @@
         <v>50797</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42429</v>
+        <v>42544</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60502</v>
+        <v>61288</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2019279326569567</v>
+        <v>0.2019279326569568</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1686652593119673</v>
+        <v>0.1691206665644115</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2405062639077823</v>
+        <v>0.2436305166416639</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>203</v>
@@ -8462,19 +8462,19 @@
         <v>101236</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88630</v>
+        <v>87098</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115399</v>
+        <v>114393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2019485329103408</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1768015719082004</v>
+        <v>0.1737468638714682</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2302025703839971</v>
+        <v>0.2281960342502239</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>199296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>188112</v>
+        <v>189015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208888</v>
+        <v>208737</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7980307163128175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7532451850007986</v>
+        <v>0.7568642235377174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8364386104781953</v>
+        <v>0.8358338600707191</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>326</v>
@@ -8512,19 +8512,19 @@
         <v>200763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>191058</v>
+        <v>190272</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209131</v>
+        <v>209016</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7980720673430433</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7594937360922178</v>
+        <v>0.7563694833583359</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8313347406880327</v>
+        <v>0.8308793334355884</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>581</v>
@@ -8533,19 +8533,19 @@
         <v>400058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>385895</v>
+        <v>386901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>412664</v>
+        <v>414196</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7980514670896592</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7697974296160027</v>
+        <v>0.7718039657497762</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8231984280917997</v>
+        <v>0.8262531361285319</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>86540</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69169</v>
+        <v>68444</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108430</v>
+        <v>109062</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1240392489796596</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09914175912294894</v>
+        <v>0.09810240174723082</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1554154803391622</v>
+        <v>0.1563202994755639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -8658,19 +8658,19 @@
         <v>68192</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55684</v>
+        <v>55889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84239</v>
+        <v>83576</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09197902587905696</v>
+        <v>0.09197902587905693</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07510739011789405</v>
+        <v>0.07538499528453894</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.113623171260175</v>
+        <v>0.1127299414669077</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -8679,19 +8679,19 @@
         <v>154732</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>132951</v>
+        <v>131541</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>181399</v>
+        <v>180648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1075222794483912</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0923873384182079</v>
+        <v>0.09140703238810513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1260531888860112</v>
+        <v>0.1255314876630429</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>611140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>589250</v>
+        <v>588618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>628511</v>
+        <v>629236</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8759607510203405</v>
+        <v>0.8759607510203408</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8445845196608378</v>
+        <v>0.8436797005244359</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9008582408770509</v>
+        <v>0.9018975982527693</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>833</v>
@@ -8729,19 +8729,19 @@
         <v>673194</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>657147</v>
+        <v>657810</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>685702</v>
+        <v>685497</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9080209741209432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.886376828739825</v>
+        <v>0.8872700585330919</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9248926098821061</v>
+        <v>0.9246150047154604</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1341</v>
@@ -8750,19 +8750,19 @@
         <v>1284334</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1257667</v>
+        <v>1258418</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1306115</v>
+        <v>1307525</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8924777205516088</v>
+        <v>0.8924777205516089</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8739468111139888</v>
+        <v>0.8744685123369571</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9076126615817924</v>
+        <v>0.9085929676118951</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>168874</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145722</v>
+        <v>147054</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>194357</v>
+        <v>192685</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2193593849353607</v>
+        <v>0.2193593849353608</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1892863652770237</v>
+        <v>0.1910156553107918</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2524600105561374</v>
+        <v>0.2502880799154779</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>127</v>
@@ -8875,19 +8875,19 @@
         <v>95486</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>80316</v>
+        <v>81030</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113392</v>
+        <v>111977</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1178393606647287</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09911819076801368</v>
+        <v>0.09999972527470211</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1399374598023235</v>
+        <v>0.1381903979605493</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>300</v>
@@ -8896,19 +8896,19 @@
         <v>264360</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>235196</v>
+        <v>236166</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>295611</v>
+        <v>298395</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1672997899038094</v>
+        <v>0.1672997899038093</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1488433913042844</v>
+        <v>0.1494570258091486</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1870768686991501</v>
+        <v>0.1888388508124481</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>600977</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>575494</v>
+        <v>577166</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>624129</v>
+        <v>622797</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7806406150646392</v>
+        <v>0.7806406150646393</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7475399894438627</v>
+        <v>0.7497119200845217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8107136347229763</v>
+        <v>0.8089843446892078</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>912</v>
@@ -8946,19 +8946,19 @@
         <v>714821</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>696915</v>
+        <v>698330</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>729991</v>
+        <v>729277</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8821606393352713</v>
+        <v>0.8821606393352712</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8600625401976765</v>
+        <v>0.8618096020394509</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9008818092319865</v>
+        <v>0.9000002747252982</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1482</v>
@@ -8967,19 +8967,19 @@
         <v>1315798</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1284547</v>
+        <v>1281763</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1344962</v>
+        <v>1343992</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8327002100961906</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8129231313008496</v>
+        <v>0.811161149187552</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8511566086957156</v>
+        <v>0.8505429741908513</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>555917</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>513020</v>
+        <v>511926</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>600557</v>
+        <v>606991</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1636744613717</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1510447002460023</v>
+        <v>0.1507225441675172</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.176817551501335</v>
+        <v>0.1787117896407493</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>684</v>
@@ -9092,19 +9092,19 @@
         <v>417116</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>387219</v>
+        <v>385018</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>453430</v>
+        <v>450589</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.115052132409405</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1068058734028801</v>
+        <v>0.1061986092366892</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1250685676528706</v>
+        <v>0.1242849398652381</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1298</v>
@@ -9113,19 +9113,19 @@
         <v>973032</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>921430</v>
+        <v>921130</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1032799</v>
+        <v>1028680</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1385705656590152</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1312218907884132</v>
+        <v>0.131179106066219</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1470819403146666</v>
+        <v>0.1464954618856397</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2840562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2795922</v>
+        <v>2789488</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2883459</v>
+        <v>2884553</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8363255386282998</v>
+        <v>0.8363255386282999</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8231824484986651</v>
+        <v>0.8212882103592505</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8489552997539976</v>
+        <v>0.8492774558324828</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4533</v>
@@ -9163,19 +9163,19 @@
         <v>3208332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3172018</v>
+        <v>3174859</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3238229</v>
+        <v>3240430</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.884947867590595</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8749314323471291</v>
+        <v>0.8757150601347619</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8931941265971194</v>
+        <v>0.8938013907633109</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7171</v>
@@ -9184,19 +9184,19 @@
         <v>6048894</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5989127</v>
+        <v>5993246</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6100496</v>
+        <v>6100796</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8614294343409848</v>
+        <v>0.8614294343409847</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8529180596853334</v>
+        <v>0.8535045381143602</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8687781092115867</v>
+        <v>0.8688208939337809</v>
       </c>
     </row>
     <row r="30">
